--- a/Personal Website/harungur.com/harungur.com/Değişecek bilgiler.xlsx
+++ b/Personal Website/harungur.com/harungur.com/Değişecek bilgiler.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HRN\Desktop\myprojects\Personal Website\harungur.com\harungur.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF87069A-2C85-46A5-B0BC-4AC0611A3BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847CF177-C811-4A0B-B0DC-C46F8F41A63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="My Personal Website" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Ad</t>
   </si>
@@ -81,35 +81,110 @@
     <t>Mail</t>
   </si>
   <si>
-    <t xml:space="preserve">Tel </t>
-  </si>
-  <si>
     <t>Fax (eğer yoksa telinizi yazın)</t>
   </si>
   <si>
     <t>Değiştireceğimiz Bilgiler</t>
   </si>
   <si>
-    <t>Size ait sitedeki gözükmesini istediğiniz bilgiler
-(Eklemek istemiyorsanız "#" işareti koyun)</t>
-  </si>
-  <si>
-    <t>Ad soyad (tr karakter ile)</t>
-  </si>
-  <si>
     <t>Harun GUR</t>
+  </si>
+  <si>
+    <t>Cv</t>
+  </si>
+  <si>
+    <t>Kendi Drive hesabınıza yüklediğiniz CV'nizin linki</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DOLDURULACAK SÜTUN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Tur"/>
+        <charset val="162"/>
+      </rPr>
+      <t>▼</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(12 rakam olacak şekilde)</t>
+    </r>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Size ait sitedeki gözükmesini istediğiniz bilgileriniz
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Eklemek istemediğiniz bilgi yerine "#" işareti koyabilirsiniz)</t>
+    </r>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ad soyad </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(tr karakter ile)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,6 +203,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Tur"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,11 +239,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -163,22 +253,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
         <charset val="162"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -197,14 +316,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{948E27CA-5C0A-4450-9632-2ADD7B261D38}" name="Tablo1" displayName="Tablo1" ref="A1:C13" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:C13" xr:uid="{948E27CA-5C0A-4450-9632-2ADD7B261D38}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{948E27CA-5C0A-4450-9632-2ADD7B261D38}" name="Tablo1" displayName="Tablo1" ref="B2:E15" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B2:E15" xr:uid="{948E27CA-5C0A-4450-9632-2ADD7B261D38}"/>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{02B1D963-B4FC-4587-9AE6-45DCD01B20D6}" name="No" dataDxfId="1"/>
     <tableColumn id="1" xr3:uid="{CE306290-A402-4B34-ADB5-AA2FB95A2BEB}" name="Değiştireceğimiz Bilgiler" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{B238158E-D09C-4171-A3F3-FC49A57DA0D5}" name="Bana ait sitedeki mevcut bilgiler"/>
-    <tableColumn id="3" xr3:uid="{0A872013-F23A-43BC-B93C-AD7995932317}" name="Size ait sitedeki gözükmesini istediğiniz bilgiler_x000a_(Eklemek istemiyorsanız &quot;#&quot; işareti koyun)" dataCellStyle="Köprü"/>
+    <tableColumn id="3" xr3:uid="{0A872013-F23A-43BC-B93C-AD7995932317}" name="Size ait sitedeki gözükmesini istediğiniz bilgileriniz_x000a_(Eklemek istemediğiniz bilgi yerine &quot;#&quot; işareti koyabilirsiniz)" dataCellStyle="Köprü"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -471,136 +591,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.85546875" customWidth="1"/>
+    <col min="6" max="6" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2">
+        <v>905052254151</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2">
+        <v>905052254151</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="9">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2">
-        <v>905052254151</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2">
-        <v>905052254151</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1"/>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{3058ACB8-7325-4F61-A670-ECE5FBDA4E0D}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{1B9C9D1C-6E59-4341-8C75-22EDD49A5111}"/>
-    <hyperlink ref="B13" r:id="rId3" xr:uid="{BF7299E8-41B4-4380-8999-0B2BF10C6FB0}"/>
-    <hyperlink ref="B11" r:id="rId4" xr:uid="{53129B75-6FCA-4FF3-8652-37CED3A476D2}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{3058ACB8-7325-4F61-A670-ECE5FBDA4E0D}"/>
+    <hyperlink ref="D13" r:id="rId2" xr:uid="{1B9C9D1C-6E59-4341-8C75-22EDD49A5111}"/>
+    <hyperlink ref="D14" r:id="rId3" xr:uid="{BF7299E8-41B4-4380-8999-0B2BF10C6FB0}"/>
+    <hyperlink ref="D12" r:id="rId4" xr:uid="{53129B75-6FCA-4FF3-8652-37CED3A476D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
